--- a/Tupro2_Fuzzy/luaran.xlsx
+++ b/Tupro2_Fuzzy/luaran.xlsx
@@ -1,32 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMMING\GitHub\Tupro-Sistem-Cerdas\Tupro2_Fuzzy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57BF88F-0198-40E7-8CC5-15AA1BC995C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7632" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -39,8 +22,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,14 +86,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -157,7 +132,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,27 +164,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,24 +198,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -434,71 +373,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8">
-        <v>84.398151614026176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9">
-        <v>81.069110691937382</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10">
-        <v>59.999999999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11">
-        <v>57.88346168863329</v>
+        <v>79.26701936809778</v>
       </c>
     </row>
   </sheetData>

--- a/Tupro2_Fuzzy/luaran.xlsx
+++ b/Tupro2_Fuzzy/luaran.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>Nilai Kelulusan</t>
   </si>
@@ -374,65 +377,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>88</v>
+      </c>
+      <c r="B8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>78.79335913919192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>75.51791790961676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
-        <v>79.26701936809778</v>
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>72.35399961124075</v>
       </c>
     </row>
   </sheetData>

--- a/Tupro2_Fuzzy/luaran.xlsx
+++ b/Tupro2_Fuzzy/luaran.xlsx
@@ -393,7 +393,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>85</v>
@@ -401,7 +401,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>85</v>
@@ -409,7 +409,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>85</v>
@@ -417,7 +417,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>85</v>
@@ -425,7 +425,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>85</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>85</v>
@@ -441,7 +441,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>85</v>
@@ -449,26 +449,26 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B9">
-        <v>78.79335913919192</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="B10">
-        <v>75.51791790961676</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B11">
-        <v>72.35399961124075</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
